--- a/src/main/resources/ExcelFiles/Pushnotificationdata.xlsx
+++ b/src/main/resources/ExcelFiles/Pushnotificationdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d31da1024d0bfd6/Desktop/eclipse/com.sevenmartsupermarket/src/main/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA6956B-1771-4B35-9A4F-235B4513546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4CA6956B-1771-4B35-9A4F-235B4513546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BEC375A-9B84-4EE6-B0E6-F4350ACDA525}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AFF1BC47-152B-41E0-8C43-9C055C3FD069}"/>
   </bookViews>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>title</t>
+    <t>title1</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>sevenmart</t>
-  </si>
-  <si>
-    <t>grocery app</t>
+    <t>Description for title1</t>
   </si>
 </sst>
 </file>
@@ -399,16 +393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC943A9-D582-445D-AA09-E9434728106B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,14 +413,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
